--- a/Code/Results/Cases/Case_1_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.81683256395161</v>
+        <v>13.59539503035409</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.857965615632978</v>
+        <v>7.425240401560876</v>
       </c>
       <c r="E2">
-        <v>9.827231250715785</v>
+        <v>11.10000132855342</v>
       </c>
       <c r="F2">
-        <v>33.06446987452885</v>
+        <v>37.98404364707886</v>
       </c>
       <c r="G2">
-        <v>2.101844301460822</v>
+        <v>3.704438909715236</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.91576586913285</v>
+        <v>30.40166379342887</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.28011997912899</v>
+        <v>14.25597574865884</v>
       </c>
       <c r="L2">
-        <v>7.532502237176655</v>
+        <v>10.64563061966733</v>
       </c>
       <c r="M2">
-        <v>10.17167212353373</v>
+        <v>15.33378006908554</v>
       </c>
       <c r="N2">
-        <v>15.11969629165541</v>
+        <v>22.57931979384975</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.30403432860252</v>
+        <v>13.52813766724618</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.940444549370773</v>
+        <v>7.443072367879551</v>
       </c>
       <c r="E3">
-        <v>9.455601281806405</v>
+        <v>10.99274457956728</v>
       </c>
       <c r="F3">
-        <v>31.89438418377236</v>
+        <v>37.82825894697596</v>
       </c>
       <c r="G3">
-        <v>2.111102085907888</v>
+        <v>3.707789732781416</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.90301981822615</v>
+        <v>30.45539037862321</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.06516643966643</v>
+        <v>13.97989148075112</v>
       </c>
       <c r="L3">
-        <v>7.311555128356924</v>
+        <v>10.63459830886144</v>
       </c>
       <c r="M3">
-        <v>9.903382406113749</v>
+        <v>15.32699478233824</v>
       </c>
       <c r="N3">
-        <v>15.3036578718903</v>
+        <v>22.63370563443742</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.981776006136231</v>
+        <v>13.48959213279652</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.991448322892293</v>
+        <v>7.454438551459846</v>
       </c>
       <c r="E4">
-        <v>9.222819233039846</v>
+        <v>10.92511618158366</v>
       </c>
       <c r="F4">
-        <v>31.18537713535952</v>
+        <v>37.74205174037004</v>
       </c>
       <c r="G4">
-        <v>2.116932964458322</v>
+        <v>3.709954873915852</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.90745199505197</v>
+        <v>30.49280981278403</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.279977444312</v>
+        <v>13.81193930320805</v>
       </c>
       <c r="L4">
-        <v>7.177600492297302</v>
+        <v>10.62984855865553</v>
       </c>
       <c r="M4">
-        <v>9.740693394148781</v>
+        <v>15.32543397972049</v>
       </c>
       <c r="N4">
-        <v>15.42069880756367</v>
+        <v>22.66900202986703</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.848771284689702</v>
+        <v>13.4745896585629</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.012345498922759</v>
+        <v>7.459175741947215</v>
       </c>
       <c r="E5">
-        <v>9.126795413900235</v>
+        <v>10.89711766809773</v>
       </c>
       <c r="F5">
-        <v>30.89908988422704</v>
+        <v>37.70931832416473</v>
       </c>
       <c r="G5">
-        <v>2.119347735836112</v>
+        <v>3.710864371602292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.91221988324293</v>
+        <v>30.50917147733912</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.95002098899355</v>
+        <v>13.74399351481963</v>
       </c>
       <c r="L5">
-        <v>7.12349793389538</v>
+        <v>10.6284235334664</v>
       </c>
       <c r="M5">
-        <v>9.674983442511376</v>
+        <v>15.32545503210514</v>
       </c>
       <c r="N5">
-        <v>15.46941390385888</v>
+        <v>22.6838647528555</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.826590141219306</v>
+        <v>13.47214147208627</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.01582287693118</v>
+        <v>7.459968726564778</v>
       </c>
       <c r="E6">
-        <v>9.110780493286669</v>
+        <v>10.89244218312302</v>
       </c>
       <c r="F6">
-        <v>30.85171974637636</v>
+        <v>37.70402828874263</v>
       </c>
       <c r="G6">
-        <v>2.119751090652581</v>
+        <v>3.71101703777713</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.91318700133552</v>
+        <v>30.51195549839925</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.89462524245576</v>
+        <v>13.73274413972684</v>
       </c>
       <c r="L6">
-        <v>7.114545221813041</v>
+        <v>10.62821778333426</v>
       </c>
       <c r="M6">
-        <v>9.664110020172103</v>
+        <v>15.32549826544042</v>
       </c>
       <c r="N6">
-        <v>15.47756441719587</v>
+        <v>22.68636165327663</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.979988811114431</v>
+        <v>13.48938693204359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.991729665332445</v>
+        <v>7.454502011620272</v>
       </c>
       <c r="E7">
-        <v>9.221528932906907</v>
+        <v>10.92474035449586</v>
       </c>
       <c r="F7">
-        <v>31.18150510994348</v>
+        <v>37.74160055585966</v>
       </c>
       <c r="G7">
-        <v>2.11696537217414</v>
+        <v>3.709967029520209</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.90750446160188</v>
+        <v>30.49302596750852</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.27556813233769</v>
+        <v>13.81102081794945</v>
       </c>
       <c r="L7">
-        <v>7.176868806681759</v>
+        <v>10.62982727132809</v>
       </c>
       <c r="M7">
-        <v>9.739804730124138</v>
+        <v>15.32543160077124</v>
       </c>
       <c r="N7">
-        <v>15.42135167560197</v>
+        <v>22.66920053295724</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.64165364283308</v>
+        <v>13.57164212319132</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.886343014717224</v>
+        <v>7.431302528391217</v>
       </c>
       <c r="E8">
-        <v>9.700040333913847</v>
+        <v>11.06339076647054</v>
       </c>
       <c r="F8">
-        <v>32.65921929846097</v>
+        <v>37.9283826943748</v>
       </c>
       <c r="G8">
-        <v>2.105007080965317</v>
+        <v>3.705571974534209</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.90875316269177</v>
+        <v>30.4192682956159</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.86926162634344</v>
+        <v>14.16051848767021</v>
       </c>
       <c r="L8">
-        <v>7.45599750484535</v>
+        <v>10.64140759301273</v>
       </c>
       <c r="M8">
-        <v>10.07878523082349</v>
+        <v>15.33090100689809</v>
       </c>
       <c r="N8">
-        <v>15.18227242406681</v>
+        <v>22.59767734642544</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.87404862027157</v>
+        <v>13.75413663816949</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.681469368440543</v>
+        <v>7.389098349963776</v>
       </c>
       <c r="E9">
-        <v>10.60286817232577</v>
+        <v>11.32095652194929</v>
       </c>
       <c r="F9">
-        <v>35.62176489148965</v>
+        <v>38.3685060934223</v>
       </c>
       <c r="G9">
-        <v>2.082632237898392</v>
+        <v>3.697803568228094</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.01405933504778</v>
+        <v>30.30984434118513</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.68954312591297</v>
+        <v>14.85384415311962</v>
       </c>
       <c r="L9">
-        <v>8.014700801162778</v>
+        <v>10.68009649033082</v>
       </c>
       <c r="M9">
-        <v>10.75670099865947</v>
+        <v>15.36220252702526</v>
       </c>
       <c r="N9">
-        <v>14.74634258329604</v>
+        <v>22.47249617848152</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.73304369210837</v>
+        <v>13.90022804874379</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.530383962624952</v>
+        <v>7.360066366760922</v>
       </c>
       <c r="E10">
-        <v>11.24690179739594</v>
+        <v>11.50111784312799</v>
       </c>
       <c r="F10">
-        <v>37.82750114069641</v>
+        <v>38.73520281875779</v>
       </c>
       <c r="G10">
-        <v>2.066715356283093</v>
+        <v>3.692608258016557</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.16212851960212</v>
+        <v>30.2509917923844</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.58478461381698</v>
+        <v>15.36227216609376</v>
       </c>
       <c r="L10">
-        <v>8.429562287802604</v>
+        <v>10.71813667944457</v>
       </c>
       <c r="M10">
-        <v>11.25917525929506</v>
+        <v>15.39759761387242</v>
       </c>
       <c r="N10">
-        <v>14.44698622329714</v>
+        <v>22.38967923259313</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.1127981398176</v>
+        <v>13.96908814315302</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.461113721095182</v>
+        <v>7.34728139649475</v>
       </c>
       <c r="E11">
-        <v>11.53653881115146</v>
+        <v>11.58103933584695</v>
       </c>
       <c r="F11">
-        <v>38.83614027394653</v>
+        <v>38.91101350451049</v>
       </c>
       <c r="G11">
-        <v>2.059554421225809</v>
+        <v>3.690354656760261</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.24666878160602</v>
+        <v>30.22890938198481</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.41077411750493</v>
+        <v>15.59219416515389</v>
       </c>
       <c r="L11">
-        <v>8.618861134920392</v>
+        <v>10.737496479756</v>
       </c>
       <c r="M11">
-        <v>11.48810392909349</v>
+        <v>15.41635435873216</v>
       </c>
       <c r="N11">
-        <v>14.31561443634548</v>
+        <v>22.35398376137485</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.2549683237689</v>
+        <v>13.99549052329903</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.434766306039078</v>
+        <v>7.342500231806809</v>
       </c>
       <c r="E12">
-        <v>11.64582868351803</v>
+        <v>11.61100514852373</v>
       </c>
       <c r="F12">
-        <v>39.21882068672524</v>
+        <v>38.97884276646061</v>
       </c>
       <c r="G12">
-        <v>2.056851130735258</v>
+        <v>3.689516960126642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.281312053138</v>
+        <v>30.22122263535106</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.71855278758977</v>
+        <v>15.67897185993824</v>
       </c>
       <c r="L12">
-        <v>8.690605909340178</v>
+        <v>10.74511965401732</v>
       </c>
       <c r="M12">
-        <v>11.57480371380093</v>
+        <v>15.42383514488128</v>
       </c>
       <c r="N12">
-        <v>14.26658885272053</v>
+        <v>22.34075081768059</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.2244227461446</v>
+        <v>13.98979008124575</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.440446524053451</v>
+        <v>7.343527269454962</v>
       </c>
       <c r="E13">
-        <v>11.62230681634213</v>
+        <v>11.60456485590782</v>
       </c>
       <c r="F13">
-        <v>39.13637077016779</v>
+        <v>38.96417943763393</v>
       </c>
       <c r="G13">
-        <v>2.057433011522895</v>
+        <v>3.689696676578521</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.27373143084021</v>
+        <v>30.22284806173334</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.65248647328534</v>
+        <v>15.66029699620239</v>
       </c>
       <c r="L13">
-        <v>8.675151892833972</v>
+        <v>10.74346493747155</v>
       </c>
       <c r="M13">
-        <v>11.55613148730805</v>
+        <v>15.42220727567398</v>
       </c>
       <c r="N13">
-        <v>14.27711471282902</v>
+        <v>22.34358813595667</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.12452755295356</v>
+        <v>13.97125384833868</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.458948669648517</v>
+        <v>7.346886842648585</v>
       </c>
       <c r="E14">
-        <v>11.54553736887727</v>
+        <v>11.58351066253938</v>
       </c>
       <c r="F14">
-        <v>38.86760887279966</v>
+        <v>38.91656897542322</v>
       </c>
       <c r="G14">
-        <v>2.059331870289855</v>
+        <v>3.69028542496173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.24946526222531</v>
+        <v>30.2282634478976</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.43619439355074</v>
+        <v>15.5993397187764</v>
       </c>
       <c r="L14">
-        <v>8.624762477557606</v>
+        <v>10.73811781111656</v>
       </c>
       <c r="M14">
-        <v>11.49523678159194</v>
+        <v>15.41696225456256</v>
       </c>
       <c r="N14">
-        <v>14.31156640052659</v>
+        <v>22.35288938603286</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.06312478946772</v>
+        <v>13.95994182763138</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.470265409456699</v>
+        <v>7.348952508649726</v>
       </c>
       <c r="E15">
-        <v>11.49846618284386</v>
+        <v>11.57057528016446</v>
       </c>
       <c r="F15">
-        <v>38.70308005639352</v>
+        <v>38.88756820341596</v>
       </c>
       <c r="G15">
-        <v>2.060495973401756</v>
+        <v>3.69064809135593</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.23494885162237</v>
+        <v>30.23166850988602</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.30306345927218</v>
+        <v>15.56196135447845</v>
       </c>
       <c r="L15">
-        <v>8.593905034977924</v>
+        <v>10.73488046488036</v>
       </c>
       <c r="M15">
-        <v>11.45793720466196</v>
+        <v>15.41379863743767</v>
       </c>
       <c r="N15">
-        <v>14.33276411585991</v>
+        <v>22.35862366638973</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.70799947900932</v>
+        <v>13.89577461839552</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.534896856875211</v>
+        <v>7.360910345886584</v>
       </c>
       <c r="E16">
-        <v>11.22791347461537</v>
+        <v>11.49585331303168</v>
       </c>
       <c r="F16">
-        <v>37.76168619603407</v>
+        <v>38.72389085304564</v>
       </c>
       <c r="G16">
-        <v>2.06718469007081</v>
+        <v>3.692757737185738</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.15696277445153</v>
+        <v>30.25252938956005</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.53009277937912</v>
+        <v>15.34721074376915</v>
       </c>
       <c r="L16">
-        <v>8.417200702088564</v>
+        <v>10.71691253462926</v>
       </c>
       <c r="M16">
-        <v>11.24421756085844</v>
+        <v>15.39642492939471</v>
       </c>
       <c r="N16">
-        <v>14.45567089423059</v>
+        <v>22.39205179669932</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.48727930409345</v>
+        <v>13.8570121501354</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.574381547899644</v>
+        <v>7.368353823499087</v>
       </c>
       <c r="E17">
-        <v>11.06114169619859</v>
+        <v>11.44948823545032</v>
       </c>
       <c r="F17">
-        <v>37.18547678384797</v>
+        <v>38.62575688622158</v>
       </c>
       <c r="G17">
-        <v>2.071306343066097</v>
+        <v>3.694079986224991</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.11363233275316</v>
+        <v>30.26652880055044</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.04677072762174</v>
+        <v>15.21505135788574</v>
       </c>
       <c r="L17">
-        <v>8.308927588704201</v>
+        <v>10.70641377988112</v>
       </c>
       <c r="M17">
-        <v>11.1131650392647</v>
+        <v>15.386444201678</v>
       </c>
       <c r="N17">
-        <v>14.53232132277223</v>
+        <v>22.41306533805103</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.35929268457678</v>
+        <v>13.83494429614912</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.597043742488424</v>
+        <v>7.372674844824491</v>
       </c>
       <c r="E18">
-        <v>10.96489831382434</v>
+        <v>11.42262909970199</v>
       </c>
       <c r="F18">
-        <v>36.85454693030835</v>
+        <v>38.57016239038685</v>
       </c>
       <c r="G18">
-        <v>2.073684715613461</v>
+        <v>3.694850846560575</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.09031719389201</v>
+        <v>30.27502227774123</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.76535996745671</v>
+        <v>15.13891359192661</v>
       </c>
       <c r="L18">
-        <v>8.24670670249473</v>
+        <v>10.7005688414284</v>
       </c>
       <c r="M18">
-        <v>11.0378219557644</v>
+        <v>15.38095373352134</v>
       </c>
       <c r="N18">
-        <v>14.57685886683262</v>
+        <v>22.42533800353905</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.31578289229761</v>
+        <v>13.82751210447952</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.604709573642732</v>
+        <v>7.374144705206693</v>
       </c>
       <c r="E19">
-        <v>10.93225444375532</v>
+        <v>11.41350241375847</v>
       </c>
       <c r="F19">
-        <v>36.74258576971346</v>
+        <v>38.55148615305649</v>
       </c>
       <c r="G19">
-        <v>2.074491403480726</v>
+        <v>3.695113624931238</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.08269444661262</v>
+        <v>30.27797379962227</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.66948664202648</v>
+        <v>15.11311639468005</v>
       </c>
       <c r="L19">
-        <v>8.225650028819194</v>
+        <v>10.69862320926402</v>
       </c>
       <c r="M19">
-        <v>11.0123194784212</v>
+        <v>15.3791378355984</v>
       </c>
       <c r="N19">
-        <v>14.5920150088116</v>
+        <v>22.42952531318662</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.51088281879134</v>
+        <v>13.86111509236543</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.570183605493849</v>
+        <v>7.367557343878533</v>
       </c>
       <c r="E20">
-        <v>11.07892743138854</v>
+        <v>11.4544437071802</v>
       </c>
       <c r="F20">
-        <v>37.24676485969</v>
+        <v>38.63611577270137</v>
       </c>
       <c r="G20">
-        <v>2.070866809614492</v>
+        <v>3.693938161317986</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.11807744874228</v>
+        <v>30.26499285019116</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.09857344449987</v>
+        <v>15.22913338498192</v>
       </c>
       <c r="L20">
-        <v>8.320447946429095</v>
+        <v>10.70751137067126</v>
       </c>
       <c r="M20">
-        <v>11.12711252418496</v>
+        <v>15.38748080096736</v>
       </c>
       <c r="N20">
-        <v>14.5241149524804</v>
+        <v>22.41080913893643</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.15391387048244</v>
+        <v>13.97668967989554</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.45351762495612</v>
+        <v>7.345898423480174</v>
       </c>
       <c r="E21">
-        <v>11.56809616360131</v>
+        <v>11.58970294461419</v>
       </c>
       <c r="F21">
-        <v>38.94653077948236</v>
+        <v>38.93051963484341</v>
       </c>
       <c r="G21">
-        <v>2.058773927557055</v>
+        <v>3.69011207010819</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.25652014820443</v>
+        <v>30.22665448085868</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.49985882876512</v>
+        <v>15.61725289970532</v>
       </c>
       <c r="L21">
-        <v>8.639561525419433</v>
+        <v>10.73968049527939</v>
       </c>
       <c r="M21">
-        <v>11.51312305227128</v>
+        <v>15.41849261723735</v>
       </c>
       <c r="N21">
-        <v>14.3014272293388</v>
+        <v>22.35014967401809</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.56463383820886</v>
+        <v>14.05411865217032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.37657084748216</v>
+        <v>7.332093911040887</v>
       </c>
       <c r="E22">
-        <v>11.88558334432675</v>
+        <v>11.67635878509456</v>
       </c>
       <c r="F22">
-        <v>40.06172259722419</v>
+        <v>39.13021592826168</v>
       </c>
       <c r="G22">
-        <v>2.050917819940377</v>
+        <v>3.687702928389324</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.36240823411951</v>
+        <v>30.20553514885865</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.38660714703907</v>
+        <v>15.86918878993001</v>
       </c>
       <c r="L22">
-        <v>8.848475921459741</v>
+        <v>10.76240525895772</v>
       </c>
       <c r="M22">
-        <v>11.76544676023715</v>
+        <v>15.44096199145269</v>
       </c>
       <c r="N22">
-        <v>14.16011597844385</v>
+        <v>22.31216135113647</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.34630968069692</v>
+        <v>14.0126264021503</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.417716602442972</v>
+        <v>7.339429679234659</v>
       </c>
       <c r="E23">
-        <v>11.71630172455508</v>
+        <v>11.63027047319752</v>
       </c>
       <c r="F23">
-        <v>39.46612066132906</v>
+        <v>39.02298152578198</v>
       </c>
       <c r="G23">
-        <v>2.055107548047848</v>
+        <v>3.688980396988975</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.30442928521218</v>
+        <v>30.21644640798709</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.91592379745064</v>
+        <v>15.73491279703276</v>
       </c>
       <c r="L23">
-        <v>8.736946345330528</v>
+        <v>10.75012227358749</v>
       </c>
       <c r="M23">
-        <v>11.63078374277076</v>
+        <v>15.42876958295288</v>
       </c>
       <c r="N23">
-        <v>14.23513760339711</v>
+        <v>22.33228500029265</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.50021506588692</v>
+        <v>13.85925947419189</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.572081611011986</v>
+        <v>7.367917302479338</v>
       </c>
       <c r="E24">
-        <v>11.07088764106657</v>
+        <v>11.45220397105108</v>
       </c>
       <c r="F24">
-        <v>37.21905545707891</v>
+        <v>38.63142995027771</v>
       </c>
       <c r="G24">
-        <v>2.071065495114877</v>
+        <v>3.694002247078662</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.11606285220087</v>
+        <v>30.26568586717849</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.07516448471961</v>
+        <v>15.22276738423666</v>
       </c>
       <c r="L24">
-        <v>8.315239507565096</v>
+        <v>10.70701455487193</v>
       </c>
       <c r="M24">
-        <v>11.12080686065926</v>
+        <v>15.38701138294605</v>
       </c>
       <c r="N24">
-        <v>14.5278235901951</v>
+        <v>22.41182856937432</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.54841592247487</v>
+        <v>13.70258865388407</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.736862869953184</v>
+        <v>7.400166614865701</v>
       </c>
       <c r="E25">
-        <v>10.36224088207319</v>
+        <v>11.25284737729197</v>
       </c>
       <c r="F25">
-        <v>34.81462461784389</v>
+        <v>38.2416967833429</v>
       </c>
       <c r="G25">
-        <v>2.088583166075282</v>
+        <v>3.69981474390977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.97375242831532</v>
+        <v>30.33566841090906</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.95832941791511</v>
+        <v>14.6660403105973</v>
       </c>
       <c r="L25">
-        <v>7.862629297501234</v>
+        <v>10.6679310918446</v>
       </c>
       <c r="M25">
-        <v>10.57229511190472</v>
+        <v>15.35154561508248</v>
       </c>
       <c r="N25">
-        <v>14.86067517227479</v>
+        <v>22.5047509416405</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.59539503035409</v>
+        <v>10.81683256395158</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.425240401560876</v>
+        <v>4.857965615632715</v>
       </c>
       <c r="E2">
-        <v>11.10000132855342</v>
+        <v>9.827231250715725</v>
       </c>
       <c r="F2">
-        <v>37.98404364707886</v>
+        <v>33.06446987452885</v>
       </c>
       <c r="G2">
-        <v>3.704438909715236</v>
+        <v>2.101844301460955</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.40166379342887</v>
+        <v>20.91576586913274</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.25597574865884</v>
+        <v>17.28011997912901</v>
       </c>
       <c r="L2">
-        <v>10.64563061966733</v>
+        <v>7.532502237176622</v>
       </c>
       <c r="M2">
-        <v>15.33378006908554</v>
+        <v>10.17167212353369</v>
       </c>
       <c r="N2">
-        <v>22.57931979384975</v>
+        <v>15.11969629165536</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.52813766724618</v>
+        <v>10.30403432860258</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.443072367879551</v>
+        <v>4.940444549371043</v>
       </c>
       <c r="E3">
-        <v>10.99274457956728</v>
+        <v>9.455601281806505</v>
       </c>
       <c r="F3">
-        <v>37.82825894697596</v>
+        <v>31.89438418377223</v>
       </c>
       <c r="G3">
-        <v>3.707789732781416</v>
+        <v>2.111102085908022</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.45539037862321</v>
+        <v>20.90301981822617</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.97989148075112</v>
+        <v>16.06516643966637</v>
       </c>
       <c r="L3">
-        <v>10.63459830886144</v>
+        <v>7.311555128356928</v>
       </c>
       <c r="M3">
-        <v>15.32699478233824</v>
+        <v>9.903382406113813</v>
       </c>
       <c r="N3">
-        <v>22.63370563443742</v>
+        <v>15.30365787189024</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.48959213279652</v>
+        <v>9.981776006136231</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.454438551459846</v>
+        <v>4.991448322892293</v>
       </c>
       <c r="E4">
-        <v>10.92511618158366</v>
+        <v>9.22281923303991</v>
       </c>
       <c r="F4">
-        <v>37.74205174037004</v>
+        <v>31.18537713535956</v>
       </c>
       <c r="G4">
-        <v>3.709954873915852</v>
+        <v>2.116932964458455</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.49280981278403</v>
+        <v>20.90745199505201</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.81193930320805</v>
+        <v>15.27997744431202</v>
       </c>
       <c r="L4">
-        <v>10.62984855865553</v>
+        <v>7.17760049229733</v>
       </c>
       <c r="M4">
-        <v>15.32543397972049</v>
+        <v>9.740693394148799</v>
       </c>
       <c r="N4">
-        <v>22.66900202986703</v>
+        <v>15.4206988075637</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.4745896585629</v>
+        <v>9.848771284689686</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.459175741947215</v>
+        <v>5.012345498922762</v>
       </c>
       <c r="E5">
-        <v>10.89711766809773</v>
+        <v>9.1267954139001</v>
       </c>
       <c r="F5">
-        <v>37.70931832416473</v>
+        <v>30.89908988422717</v>
       </c>
       <c r="G5">
-        <v>3.710864371602292</v>
+        <v>2.119347735836248</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.50917147733912</v>
+        <v>20.912219883243</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.74399351481963</v>
+        <v>14.95002098899355</v>
       </c>
       <c r="L5">
-        <v>10.6284235334664</v>
+        <v>7.123497933895401</v>
       </c>
       <c r="M5">
-        <v>15.32545503210514</v>
+        <v>9.674983442511365</v>
       </c>
       <c r="N5">
-        <v>22.6838647528555</v>
+        <v>15.469413903859</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.47214147208627</v>
+        <v>9.826590141219373</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.459968726564778</v>
+        <v>5.015822876931183</v>
       </c>
       <c r="E6">
-        <v>10.89244218312302</v>
+        <v>9.110780493286773</v>
       </c>
       <c r="F6">
-        <v>37.70402828874263</v>
+        <v>30.85171974637636</v>
       </c>
       <c r="G6">
-        <v>3.71101703777713</v>
+        <v>2.11975109065258</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.51195549839925</v>
+        <v>20.91318700133566</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.73274413972684</v>
+        <v>14.89462524245572</v>
       </c>
       <c r="L6">
-        <v>10.62821778333426</v>
+        <v>7.114545221813027</v>
       </c>
       <c r="M6">
-        <v>15.32549826544042</v>
+        <v>9.664110020172149</v>
       </c>
       <c r="N6">
-        <v>22.68636165327663</v>
+        <v>15.47756441719587</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.48938693204359</v>
+        <v>9.979988811114472</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.454502011620272</v>
+        <v>4.991729665332251</v>
       </c>
       <c r="E7">
-        <v>10.92474035449586</v>
+        <v>9.221528932907145</v>
       </c>
       <c r="F7">
-        <v>37.74160055585966</v>
+        <v>31.1815051099434</v>
       </c>
       <c r="G7">
-        <v>3.709967029520209</v>
+        <v>2.116965372174541</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.49302596750852</v>
+        <v>20.90750446160186</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.81102081794945</v>
+        <v>15.27556813233777</v>
       </c>
       <c r="L7">
-        <v>10.62982727132809</v>
+        <v>7.17686880668177</v>
       </c>
       <c r="M7">
-        <v>15.32543160077124</v>
+        <v>9.739804730124135</v>
       </c>
       <c r="N7">
-        <v>22.66920053295724</v>
+        <v>15.42135167560195</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.57164212319132</v>
+        <v>10.64165364283306</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.431302528391217</v>
+        <v>4.886343014717158</v>
       </c>
       <c r="E8">
-        <v>11.06339076647054</v>
+        <v>9.700040333913662</v>
       </c>
       <c r="F8">
-        <v>37.9283826943748</v>
+        <v>32.65921929846103</v>
       </c>
       <c r="G8">
-        <v>3.705571974534209</v>
+        <v>2.105007080965184</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.4192682956159</v>
+        <v>20.90875316269172</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.16051848767021</v>
+        <v>16.86926162634338</v>
       </c>
       <c r="L8">
-        <v>10.64140759301273</v>
+        <v>7.455997504845318</v>
       </c>
       <c r="M8">
-        <v>15.33090100689809</v>
+        <v>10.07878523082347</v>
       </c>
       <c r="N8">
-        <v>22.59767734642544</v>
+        <v>15.18227242406682</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75413663816949</v>
+        <v>11.8740486202716</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.389098349963776</v>
+        <v>4.681469368440546</v>
       </c>
       <c r="E9">
-        <v>11.32095652194929</v>
+        <v>10.60286817232566</v>
       </c>
       <c r="F9">
-        <v>38.3685060934223</v>
+        <v>35.62176489148972</v>
       </c>
       <c r="G9">
-        <v>3.697803568228094</v>
+        <v>2.082632237898389</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.30984434118513</v>
+        <v>21.01405933504785</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.85384415311962</v>
+        <v>19.68954312591298</v>
       </c>
       <c r="L9">
-        <v>10.68009649033082</v>
+        <v>8.014700801162727</v>
       </c>
       <c r="M9">
-        <v>15.36220252702526</v>
+        <v>10.75670099865946</v>
       </c>
       <c r="N9">
-        <v>22.47249617848152</v>
+        <v>14.74634258329605</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.90022804874379</v>
+        <v>12.73304369210837</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.360066366760922</v>
+        <v>4.530383962624883</v>
       </c>
       <c r="E10">
-        <v>11.50111784312799</v>
+        <v>11.24690179739594</v>
       </c>
       <c r="F10">
-        <v>38.73520281875779</v>
+        <v>37.8275011406964</v>
       </c>
       <c r="G10">
-        <v>3.692608258016557</v>
+        <v>2.066715356283095</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.2509917923844</v>
+        <v>21.1621285196021</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.36227216609376</v>
+        <v>21.58478461381697</v>
       </c>
       <c r="L10">
-        <v>10.71813667944457</v>
+        <v>8.429562287802588</v>
       </c>
       <c r="M10">
-        <v>15.39759761387242</v>
+        <v>11.25917525929506</v>
       </c>
       <c r="N10">
-        <v>22.38967923259313</v>
+        <v>14.44698622329708</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.96908814315302</v>
+        <v>13.11279813981761</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.34728139649475</v>
+        <v>4.461113721095184</v>
       </c>
       <c r="E11">
-        <v>11.58103933584695</v>
+        <v>11.53653881115145</v>
       </c>
       <c r="F11">
-        <v>38.91101350451049</v>
+        <v>38.83614027394653</v>
       </c>
       <c r="G11">
-        <v>3.690354656760261</v>
+        <v>2.059554421225674</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.22890938198481</v>
+        <v>21.24666878160603</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.59219416515389</v>
+        <v>22.41077411750494</v>
       </c>
       <c r="L11">
-        <v>10.737496479756</v>
+        <v>8.618861134920385</v>
       </c>
       <c r="M11">
-        <v>15.41635435873216</v>
+        <v>11.48810392909348</v>
       </c>
       <c r="N11">
-        <v>22.35398376137485</v>
+        <v>14.31561443634551</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.99549052329903</v>
+        <v>13.25496832376891</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.342500231806809</v>
+        <v>4.434766306039077</v>
       </c>
       <c r="E12">
-        <v>11.61100514852373</v>
+        <v>11.64582868351809</v>
       </c>
       <c r="F12">
-        <v>38.97884276646061</v>
+        <v>39.21882068672528</v>
       </c>
       <c r="G12">
-        <v>3.689516960126642</v>
+        <v>2.056851130735259</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.22122263535106</v>
+        <v>21.28131205313783</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.67897185993824</v>
+        <v>22.71855278758987</v>
       </c>
       <c r="L12">
-        <v>10.74511965401732</v>
+        <v>8.690605909340171</v>
       </c>
       <c r="M12">
-        <v>15.42383514488128</v>
+        <v>11.57480371380094</v>
       </c>
       <c r="N12">
-        <v>22.34075081768059</v>
+        <v>14.26658885272037</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.98979008124575</v>
+        <v>13.22442274614461</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.343527269454962</v>
+        <v>4.440446524053187</v>
       </c>
       <c r="E13">
-        <v>11.60456485590782</v>
+        <v>11.62230681634213</v>
       </c>
       <c r="F13">
-        <v>38.96417943763393</v>
+        <v>39.13637077016782</v>
       </c>
       <c r="G13">
-        <v>3.689696676578521</v>
+        <v>2.057433011522895</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.22284806173334</v>
+        <v>21.27373143084026</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.66029699620239</v>
+        <v>22.65248647328534</v>
       </c>
       <c r="L13">
-        <v>10.74346493747155</v>
+        <v>8.675151892833957</v>
       </c>
       <c r="M13">
-        <v>15.42220727567398</v>
+        <v>11.55613148730805</v>
       </c>
       <c r="N13">
-        <v>22.34358813595667</v>
+        <v>14.27711471282902</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.97125384833868</v>
+        <v>13.12452755295361</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.346886842648585</v>
+        <v>4.458948669648522</v>
       </c>
       <c r="E14">
-        <v>11.58351066253938</v>
+        <v>11.54553736887775</v>
       </c>
       <c r="F14">
-        <v>38.91656897542322</v>
+        <v>38.86760887279965</v>
       </c>
       <c r="G14">
-        <v>3.69028542496173</v>
+        <v>2.059331870289857</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.2282634478976</v>
+        <v>21.24946526222533</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.5993397187764</v>
+        <v>22.43619439355091</v>
       </c>
       <c r="L14">
-        <v>10.73811781111656</v>
+        <v>8.624762477557622</v>
       </c>
       <c r="M14">
-        <v>15.41696225456256</v>
+        <v>11.49523678159198</v>
       </c>
       <c r="N14">
-        <v>22.35288938603286</v>
+        <v>14.31156640052653</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.95994182763138</v>
+        <v>13.06312478946775</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.348952508649726</v>
+        <v>4.470265409456765</v>
       </c>
       <c r="E15">
-        <v>11.57057528016446</v>
+        <v>11.4984661828438</v>
       </c>
       <c r="F15">
-        <v>38.88756820341596</v>
+        <v>38.70308005639357</v>
       </c>
       <c r="G15">
-        <v>3.69064809135593</v>
+        <v>2.060495973401754</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.23166850988602</v>
+        <v>21.23494885162238</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.56196135447845</v>
+        <v>22.30306345927215</v>
       </c>
       <c r="L15">
-        <v>10.73488046488036</v>
+        <v>8.59390503497792</v>
       </c>
       <c r="M15">
-        <v>15.41379863743767</v>
+        <v>11.45793720466197</v>
       </c>
       <c r="N15">
-        <v>22.35862366638973</v>
+        <v>14.33276411585992</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.89577461839552</v>
+        <v>12.70799947900933</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.360910345886584</v>
+        <v>4.534896856875152</v>
       </c>
       <c r="E16">
-        <v>11.49585331303168</v>
+        <v>11.22791347461541</v>
       </c>
       <c r="F16">
-        <v>38.72389085304564</v>
+        <v>37.76168619603411</v>
       </c>
       <c r="G16">
-        <v>3.692757737185738</v>
+        <v>2.06718469007081</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.25252938956005</v>
+        <v>21.15696277445158</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.34721074376915</v>
+        <v>21.53009277937909</v>
       </c>
       <c r="L16">
-        <v>10.71691253462926</v>
+        <v>8.417200702088588</v>
       </c>
       <c r="M16">
-        <v>15.39642492939471</v>
+        <v>11.24421756085848</v>
       </c>
       <c r="N16">
-        <v>22.39205179669932</v>
+        <v>14.45567089423069</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.8570121501354</v>
+        <v>12.48727930409343</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.368353823499087</v>
+        <v>4.574381547899513</v>
       </c>
       <c r="E17">
-        <v>11.44948823545032</v>
+        <v>11.06114169619871</v>
       </c>
       <c r="F17">
-        <v>38.62575688622158</v>
+        <v>37.18547678384798</v>
       </c>
       <c r="G17">
-        <v>3.694079986224991</v>
+        <v>2.071306343066099</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.26652880055044</v>
+        <v>21.11363233275307</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.21505135788574</v>
+        <v>21.04677072762183</v>
       </c>
       <c r="L17">
-        <v>10.70641377988112</v>
+        <v>8.308927588704213</v>
       </c>
       <c r="M17">
-        <v>15.386444201678</v>
+        <v>11.11316503926467</v>
       </c>
       <c r="N17">
-        <v>22.41306533805103</v>
+        <v>14.53232132277221</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.83494429614912</v>
+        <v>12.3592926845768</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.372674844824491</v>
+        <v>4.597043742488422</v>
       </c>
       <c r="E18">
-        <v>11.42262909970199</v>
+        <v>10.96489831382441</v>
       </c>
       <c r="F18">
-        <v>38.57016239038685</v>
+        <v>36.85454693030826</v>
       </c>
       <c r="G18">
-        <v>3.694850846560575</v>
+        <v>2.073684715613463</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.27502227774123</v>
+        <v>21.09031719389201</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.13891359192661</v>
+        <v>20.76535996745677</v>
       </c>
       <c r="L18">
-        <v>10.7005688414284</v>
+        <v>8.246706702494693</v>
       </c>
       <c r="M18">
-        <v>15.38095373352134</v>
+        <v>11.03782195576436</v>
       </c>
       <c r="N18">
-        <v>22.42533800353905</v>
+        <v>14.57685886683259</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.82751210447952</v>
+        <v>12.31578289229763</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.374144705206693</v>
+        <v>4.604709573642726</v>
       </c>
       <c r="E19">
-        <v>11.41350241375847</v>
+        <v>10.93225444375507</v>
       </c>
       <c r="F19">
-        <v>38.55148615305649</v>
+        <v>36.74258576971354</v>
       </c>
       <c r="G19">
-        <v>3.695113624931238</v>
+        <v>2.074491403480467</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.27797379962227</v>
+        <v>21.08269444661272</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.11311639468005</v>
+        <v>20.66948664202637</v>
       </c>
       <c r="L19">
-        <v>10.69862320926402</v>
+        <v>8.225650028819203</v>
       </c>
       <c r="M19">
-        <v>15.3791378355984</v>
+        <v>11.0123194784212</v>
       </c>
       <c r="N19">
-        <v>22.42952531318662</v>
+        <v>14.59201500881172</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.86111509236543</v>
+        <v>12.51088281879136</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.367557343878533</v>
+        <v>4.570183605493786</v>
       </c>
       <c r="E20">
-        <v>11.4544437071802</v>
+        <v>11.07892743138867</v>
       </c>
       <c r="F20">
-        <v>38.63611577270137</v>
+        <v>37.24676485969</v>
       </c>
       <c r="G20">
-        <v>3.693938161317986</v>
+        <v>2.070866809614622</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.26499285019116</v>
+        <v>21.11807744874228</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.22913338498192</v>
+        <v>21.09857344449994</v>
       </c>
       <c r="L20">
-        <v>10.70751137067126</v>
+        <v>8.320447946429081</v>
       </c>
       <c r="M20">
-        <v>15.38748080096736</v>
+        <v>11.12711252418497</v>
       </c>
       <c r="N20">
-        <v>22.41080913893643</v>
+        <v>14.52411495248034</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.97668967989554</v>
+        <v>13.15391387048244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.345898423480174</v>
+        <v>4.453517624955862</v>
       </c>
       <c r="E21">
-        <v>11.58970294461419</v>
+        <v>11.56809616360107</v>
       </c>
       <c r="F21">
-        <v>38.93051963484341</v>
+        <v>38.94653077948236</v>
       </c>
       <c r="G21">
-        <v>3.69011207010819</v>
+        <v>2.058773927556925</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.22665448085868</v>
+        <v>21.25652014820437</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.61725289970532</v>
+        <v>22.49985882876507</v>
       </c>
       <c r="L21">
-        <v>10.73968049527939</v>
+        <v>8.63956152541942</v>
       </c>
       <c r="M21">
-        <v>15.41849261723735</v>
+        <v>11.51312305227126</v>
       </c>
       <c r="N21">
-        <v>22.35014967401809</v>
+        <v>14.30142722933877</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.05411865217032</v>
+        <v>13.56463383820889</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.332093911040887</v>
+        <v>4.376570847482161</v>
       </c>
       <c r="E22">
-        <v>11.67635878509456</v>
+        <v>11.88558334432686</v>
       </c>
       <c r="F22">
-        <v>39.13021592826168</v>
+        <v>40.06172259722425</v>
       </c>
       <c r="G22">
-        <v>3.687702928389324</v>
+        <v>2.050917819940377</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.20553514885865</v>
+        <v>21.36240823411966</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.86918878993001</v>
+        <v>23.38660714703911</v>
       </c>
       <c r="L22">
-        <v>10.76240525895772</v>
+        <v>8.84847592145972</v>
       </c>
       <c r="M22">
-        <v>15.44096199145269</v>
+        <v>11.76544676023717</v>
       </c>
       <c r="N22">
-        <v>22.31216135113647</v>
+        <v>14.1601159784439</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.0126264021503</v>
+        <v>13.34630968069692</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.339429679234659</v>
+        <v>4.417716602443168</v>
       </c>
       <c r="E23">
-        <v>11.63027047319752</v>
+        <v>11.71630172455507</v>
       </c>
       <c r="F23">
-        <v>39.02298152578198</v>
+        <v>39.46612066132907</v>
       </c>
       <c r="G23">
-        <v>3.688980396988975</v>
+        <v>2.055107548047981</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.21644640798709</v>
+        <v>21.30442928521222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.73491279703276</v>
+        <v>22.91592379745066</v>
       </c>
       <c r="L23">
-        <v>10.75012227358749</v>
+        <v>8.736946345330509</v>
       </c>
       <c r="M23">
-        <v>15.42876958295288</v>
+        <v>11.63078374277075</v>
       </c>
       <c r="N23">
-        <v>22.33228500029265</v>
+        <v>14.23513760339712</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.85925947419189</v>
+        <v>12.50021506588689</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.367917302479338</v>
+        <v>4.572081611012051</v>
       </c>
       <c r="E24">
-        <v>11.45220397105108</v>
+        <v>11.07088764106658</v>
       </c>
       <c r="F24">
-        <v>38.63142995027771</v>
+        <v>37.21905545707897</v>
       </c>
       <c r="G24">
-        <v>3.694002247078662</v>
+        <v>2.071065495114747</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.26568586717849</v>
+        <v>21.11606285220096</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.22276738423666</v>
+        <v>21.0751644847196</v>
       </c>
       <c r="L24">
-        <v>10.70701455487193</v>
+        <v>8.31523950756511</v>
       </c>
       <c r="M24">
-        <v>15.38701138294605</v>
+        <v>11.12080686065928</v>
       </c>
       <c r="N24">
-        <v>22.41182856937432</v>
+        <v>14.52782359019519</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70258865388407</v>
+        <v>11.54841592247488</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.400166614865701</v>
+        <v>4.736862869953312</v>
       </c>
       <c r="E25">
-        <v>11.25284737729197</v>
+        <v>10.36224088207331</v>
       </c>
       <c r="F25">
-        <v>38.2416967833429</v>
+        <v>34.81462461784385</v>
       </c>
       <c r="G25">
-        <v>3.69981474390977</v>
+        <v>2.088583166075151</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.33566841090906</v>
+        <v>20.97375242831531</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.6660403105973</v>
+        <v>18.95832941791511</v>
       </c>
       <c r="L25">
-        <v>10.6679310918446</v>
+        <v>7.86262929750126</v>
       </c>
       <c r="M25">
-        <v>15.35154561508248</v>
+        <v>10.57229511190474</v>
       </c>
       <c r="N25">
-        <v>22.5047509416405</v>
+        <v>14.86067517227478</v>
       </c>
       <c r="O25">
         <v>0</v>
